--- a/downloads/SPG DIGES Base de datos version 1.0.xlsx
+++ b/downloads/SPG DIGES Base de datos version 1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florencia Gayraud\Desktop\Clases Derecho y Políticas Públicas\proyecto diges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B5E75A6-AC51-4EBC-BBD1-55F63019F499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DDA4B8-DA9B-487D-AB2B-8C6CF88A6404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9113,7 +9113,7 @@
     <t>No subordinación, Proporcionalidad</t>
   </si>
   <si>
-    <t>t</t>
+    <t>inconstitucionalidad</t>
   </si>
 </sst>
 </file>
@@ -9123,7 +9123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9284,6 +9284,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9327,10 +9334,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -9461,8 +9469,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9681,9 +9691,9 @@
   </sheetPr>
   <dimension ref="A1:BE529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX1" sqref="AX1"/>
+      <selection pane="bottomLeft" activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -9897,7 +9907,7 @@
       <c r="F2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="56" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="6" t="s">
